--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>124.506835</v>
+        <v>73.823705</v>
       </c>
       <c r="H2">
-        <v>373.520505</v>
+        <v>221.471115</v>
       </c>
       <c r="I2">
-        <v>0.3727127886796942</v>
+        <v>0.260518167190625</v>
       </c>
       <c r="J2">
-        <v>0.3727127886796942</v>
+        <v>0.260518167190625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>15528.81343982063</v>
+        <v>6755.703535269222</v>
       </c>
       <c r="R2">
-        <v>139759.3209583857</v>
+        <v>60801.33181742299</v>
       </c>
       <c r="S2">
-        <v>0.3640401881815808</v>
+        <v>0.2523253871917041</v>
       </c>
       <c r="T2">
-        <v>0.3640401881815808</v>
+        <v>0.2523253871917041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>124.506835</v>
+        <v>73.823705</v>
       </c>
       <c r="H3">
-        <v>373.520505</v>
+        <v>221.471115</v>
       </c>
       <c r="I3">
-        <v>0.3727127886796942</v>
+        <v>0.260518167190625</v>
       </c>
       <c r="J3">
-        <v>0.3727127886796942</v>
+        <v>0.260518167190625</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>16.77256475652</v>
+        <v>9.944938947960001</v>
       </c>
       <c r="R3">
-        <v>150.95308280868</v>
+        <v>89.50445053164</v>
       </c>
       <c r="S3">
-        <v>0.0003931973073096446</v>
+        <v>0.000371443263834973</v>
       </c>
       <c r="T3">
-        <v>0.0003931973073096446</v>
+        <v>0.0003714432638349731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>124.506835</v>
+        <v>73.823705</v>
       </c>
       <c r="H4">
-        <v>373.520505</v>
+        <v>221.471115</v>
       </c>
       <c r="I4">
-        <v>0.3727127886796942</v>
+        <v>0.260518167190625</v>
       </c>
       <c r="J4">
-        <v>0.3727127886796942</v>
+        <v>0.260518167190625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>353.1733905129084</v>
+        <v>209.4067220893917</v>
       </c>
       <c r="R4">
-        <v>3178.560514616176</v>
+        <v>1884.660498804525</v>
       </c>
       <c r="S4">
-        <v>0.008279403190803687</v>
+        <v>0.007821336735085971</v>
       </c>
       <c r="T4">
-        <v>0.008279403190803688</v>
+        <v>0.007821336735085971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>432.679551</v>
       </c>
       <c r="I5">
-        <v>0.4317439066909806</v>
+        <v>0.5089642665472768</v>
       </c>
       <c r="J5">
-        <v>0.4317439066909806</v>
+        <v>0.5089642665472768</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>17988.30301620083</v>
+        <v>13198.35669012367</v>
       </c>
       <c r="R5">
-        <v>161894.7271458074</v>
+        <v>118785.2102111131</v>
       </c>
       <c r="S5">
-        <v>0.4216977195625763</v>
+        <v>0.4929583491554088</v>
       </c>
       <c r="T5">
-        <v>0.4216977195625763</v>
+        <v>0.4929583491554089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>432.679551</v>
       </c>
       <c r="I6">
-        <v>0.4317439066909806</v>
+        <v>0.5089642665472768</v>
       </c>
       <c r="J6">
-        <v>0.4317439066909806</v>
+        <v>0.5089642665472768</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
         <v>19.429042558104</v>
@@ -818,10 +818,10 @@
         <v>174.861383022936</v>
       </c>
       <c r="S6">
-        <v>0.000455472811007112</v>
+        <v>0.0007256743373423243</v>
       </c>
       <c r="T6">
-        <v>0.000455472811007112</v>
+        <v>0.0007256743373423244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>432.679551</v>
       </c>
       <c r="I7">
-        <v>0.4317439066909806</v>
+        <v>0.5089642665472768</v>
       </c>
       <c r="J7">
-        <v>0.4317439066909806</v>
+        <v>0.5089642665472768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
         <v>409.1098132143317</v>
@@ -880,10 +880,10 @@
         <v>3681.988318928985</v>
       </c>
       <c r="S7">
-        <v>0.00959071431739713</v>
+        <v>0.01528024305452566</v>
       </c>
       <c r="T7">
-        <v>0.009590714317397131</v>
+        <v>0.01528024305452566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.32235733333333</v>
+        <v>65.32235733333334</v>
       </c>
       <c r="H8">
         <v>195.967072</v>
       </c>
       <c r="I8">
-        <v>0.1955433046293252</v>
+        <v>0.2305175662620982</v>
       </c>
       <c r="J8">
-        <v>0.1955433046293253</v>
+        <v>0.2305175662620982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N8">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q8">
-        <v>8147.172807650538</v>
+        <v>5977.734121701415</v>
       </c>
       <c r="R8">
-        <v>73324.55526885485</v>
+        <v>53799.60709531274</v>
       </c>
       <c r="S8">
-        <v>0.1909932354805351</v>
+        <v>0.2232682456997815</v>
       </c>
       <c r="T8">
-        <v>0.1909932354805351</v>
+        <v>0.2232682456997815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.32235733333333</v>
+        <v>65.32235733333334</v>
       </c>
       <c r="H9">
         <v>195.967072</v>
       </c>
       <c r="I9">
-        <v>0.1955433046293252</v>
+        <v>0.2305175662620982</v>
       </c>
       <c r="J9">
-        <v>0.1955433046293253</v>
+        <v>0.2305175662620982</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.404136</v>
       </c>
       <c r="O9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q9">
-        <v>8.799705401088</v>
+        <v>8.799705401088001</v>
       </c>
       <c r="R9">
-        <v>79.197348609792</v>
+        <v>79.19734860979202</v>
       </c>
       <c r="S9">
-        <v>0.0002062904820493194</v>
+        <v>0.0003286688145669161</v>
       </c>
       <c r="T9">
-        <v>0.0002062904820493195</v>
+        <v>0.0003286688145669163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.32235733333333</v>
+        <v>65.32235733333334</v>
       </c>
       <c r="H10">
         <v>195.967072</v>
       </c>
       <c r="I10">
-        <v>0.1955433046293252</v>
+        <v>0.2305175662620982</v>
       </c>
       <c r="J10">
-        <v>0.1955433046293253</v>
+        <v>0.2305175662620982</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N10">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q10">
         <v>185.2919834939911</v>
@@ -1066,10 +1066,10 @@
         <v>1667.62785144592</v>
       </c>
       <c r="S10">
-        <v>0.004343778666740814</v>
+        <v>0.006920651747749759</v>
       </c>
       <c r="T10">
-        <v>0.004343778666740815</v>
+        <v>0.00692065174774976</v>
       </c>
     </row>
   </sheetData>
